--- a/e61 Projects/Fiscal sustainability/Function analysis/Function analysis/Income_tax.xlsx
+++ b/e61 Projects/Fiscal sustainability/Function analysis/Function analysis/Income_tax.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MattNolan\Git\TVHENZ\e61 Projects\Fiscal sustainability\Function analysis\Function analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEM\Documents\GitHub\TVHENZ\e61 Projects\Fiscal sustainability\Function analysis\Function analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1431F95C-8A2E-4BA5-AAFA-DC254DE6A23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6240F6D2-9B1C-4B1A-8B2B-F278B9493F0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9472744F-9728-4847-82AB-5FE345E69980}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{9472744F-9728-4847-82AB-5FE345E69980}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Accrual_total</t>
   </si>
@@ -53,390 +53,6 @@
     <t>NGDP</t>
   </si>
   <si>
-    <t>1901-02</t>
-  </si>
-  <si>
-    <t>1902-03</t>
-  </si>
-  <si>
-    <t>1903-04</t>
-  </si>
-  <si>
-    <t>1904-05</t>
-  </si>
-  <si>
-    <t>1905-06</t>
-  </si>
-  <si>
-    <t>1906-07</t>
-  </si>
-  <si>
-    <t>1907-08</t>
-  </si>
-  <si>
-    <t>1908-09</t>
-  </si>
-  <si>
-    <t>1909-10</t>
-  </si>
-  <si>
-    <t>1910-11</t>
-  </si>
-  <si>
-    <t>1911-12</t>
-  </si>
-  <si>
-    <t>1912-13</t>
-  </si>
-  <si>
-    <t>1913-14</t>
-  </si>
-  <si>
-    <t>1914-15</t>
-  </si>
-  <si>
-    <t>1915-16</t>
-  </si>
-  <si>
-    <t>1916-17</t>
-  </si>
-  <si>
-    <t>1917-18</t>
-  </si>
-  <si>
-    <t>1918-19</t>
-  </si>
-  <si>
-    <t>1919-20</t>
-  </si>
-  <si>
-    <t>1920-21</t>
-  </si>
-  <si>
-    <t>1921-22</t>
-  </si>
-  <si>
-    <t>1922-23</t>
-  </si>
-  <si>
-    <t>1923-24</t>
-  </si>
-  <si>
-    <t>1924-25</t>
-  </si>
-  <si>
-    <t>1925-26</t>
-  </si>
-  <si>
-    <t>1926-27</t>
-  </si>
-  <si>
-    <t>1927-28</t>
-  </si>
-  <si>
-    <t>1928-29</t>
-  </si>
-  <si>
-    <t>1929-30</t>
-  </si>
-  <si>
-    <t>1930-31</t>
-  </si>
-  <si>
-    <t>1931-32</t>
-  </si>
-  <si>
-    <t>1932-33</t>
-  </si>
-  <si>
-    <t>1933-34</t>
-  </si>
-  <si>
-    <t>1934-35</t>
-  </si>
-  <si>
-    <t>1935-36</t>
-  </si>
-  <si>
-    <t>1936-37</t>
-  </si>
-  <si>
-    <t>1937-38</t>
-  </si>
-  <si>
-    <t>1938-39</t>
-  </si>
-  <si>
-    <t>1939-40</t>
-  </si>
-  <si>
-    <t>1940-41</t>
-  </si>
-  <si>
-    <t>1941-42</t>
-  </si>
-  <si>
-    <t>1942-43</t>
-  </si>
-  <si>
-    <t>1943-44</t>
-  </si>
-  <si>
-    <t>1944-45</t>
-  </si>
-  <si>
-    <t>1945-46</t>
-  </si>
-  <si>
-    <t>1946-47</t>
-  </si>
-  <si>
-    <t>1947-48</t>
-  </si>
-  <si>
-    <t>1948-49</t>
-  </si>
-  <si>
-    <t>1949-50</t>
-  </si>
-  <si>
-    <t>1950-51</t>
-  </si>
-  <si>
-    <t>1951-52</t>
-  </si>
-  <si>
-    <t>1952-53</t>
-  </si>
-  <si>
-    <t>1953-54</t>
-  </si>
-  <si>
-    <t>1954-55</t>
-  </si>
-  <si>
-    <t>1955-56</t>
-  </si>
-  <si>
-    <t>1956-57</t>
-  </si>
-  <si>
-    <t>1957-58</t>
-  </si>
-  <si>
-    <t>1958-59</t>
-  </si>
-  <si>
-    <t>1959-60</t>
-  </si>
-  <si>
-    <t>1960-61</t>
-  </si>
-  <si>
-    <t>1961-62</t>
-  </si>
-  <si>
-    <t>1962-63</t>
-  </si>
-  <si>
-    <t>1963-64</t>
-  </si>
-  <si>
-    <t>1964-65</t>
-  </si>
-  <si>
-    <t>1965-66</t>
-  </si>
-  <si>
-    <t>1966-67</t>
-  </si>
-  <si>
-    <t>1967-68</t>
-  </si>
-  <si>
-    <t>1968-69</t>
-  </si>
-  <si>
-    <t>1969-70</t>
-  </si>
-  <si>
-    <t>1970-71</t>
-  </si>
-  <si>
-    <t>1971-72</t>
-  </si>
-  <si>
-    <t>1972-73</t>
-  </si>
-  <si>
-    <t>1973-74</t>
-  </si>
-  <si>
-    <t>1974-75</t>
-  </si>
-  <si>
-    <t>1975-76</t>
-  </si>
-  <si>
-    <t>1976-77</t>
-  </si>
-  <si>
-    <t>1977-78</t>
-  </si>
-  <si>
-    <t>1978-79</t>
-  </si>
-  <si>
-    <t>1979-80</t>
-  </si>
-  <si>
-    <t>1980-81</t>
-  </si>
-  <si>
-    <t>1981-82</t>
-  </si>
-  <si>
-    <t>1982-83</t>
-  </si>
-  <si>
-    <t>1983-84</t>
-  </si>
-  <si>
-    <t>1984-85</t>
-  </si>
-  <si>
-    <t>1985-86</t>
-  </si>
-  <si>
-    <t>1986-87</t>
-  </si>
-  <si>
-    <t>1987-88</t>
-  </si>
-  <si>
-    <t>1988-89</t>
-  </si>
-  <si>
-    <t>1989-90</t>
-  </si>
-  <si>
-    <t>1990-91</t>
-  </si>
-  <si>
-    <t>1991-92</t>
-  </si>
-  <si>
-    <t>1992-93</t>
-  </si>
-  <si>
-    <t>1993-94</t>
-  </si>
-  <si>
-    <t>1994-95</t>
-  </si>
-  <si>
-    <t>1995-96</t>
-  </si>
-  <si>
-    <t>1996-97</t>
-  </si>
-  <si>
-    <t>1997-98</t>
-  </si>
-  <si>
-    <t>1998-99</t>
-  </si>
-  <si>
-    <t>1999-00</t>
-  </si>
-  <si>
-    <t>2000-01</t>
-  </si>
-  <si>
-    <t>2001-02</t>
-  </si>
-  <si>
-    <t>2002-03</t>
-  </si>
-  <si>
-    <t>2003-04</t>
-  </si>
-  <si>
-    <t>2004-05</t>
-  </si>
-  <si>
-    <t>2005-06</t>
-  </si>
-  <si>
-    <t>2006-07</t>
-  </si>
-  <si>
-    <t>2007-08</t>
-  </si>
-  <si>
-    <t>2008-09</t>
-  </si>
-  <si>
-    <t>2009-10</t>
-  </si>
-  <si>
-    <t>2010-11</t>
-  </si>
-  <si>
-    <t>2011-12</t>
-  </si>
-  <si>
-    <t>2012-13</t>
-  </si>
-  <si>
-    <t>2013-14</t>
-  </si>
-  <si>
-    <t>2014-15</t>
-  </si>
-  <si>
-    <t>2015-16</t>
-  </si>
-  <si>
-    <t>2016-17</t>
-  </si>
-  <si>
-    <t>2017-18</t>
-  </si>
-  <si>
-    <t>2018-19</t>
-  </si>
-  <si>
-    <t>2019-20</t>
-  </si>
-  <si>
-    <t>2020-21</t>
-  </si>
-  <si>
-    <t>2021-22</t>
-  </si>
-  <si>
-    <t>2022-23</t>
-  </si>
-  <si>
-    <t>2023-24</t>
-  </si>
-  <si>
-    <t>2024-25</t>
-  </si>
-  <si>
-    <t>2025-26</t>
-  </si>
-  <si>
-    <t>2026-27</t>
-  </si>
-  <si>
-    <t>2027-28</t>
-  </si>
-  <si>
-    <t>2028-29</t>
-  </si>
-  <si>
     <t>Ratio_acc_total</t>
   </si>
   <si>
@@ -447,6 +63,9 @@
   </si>
   <si>
     <t>Ratio_cash_per</t>
+  </si>
+  <si>
+    <t>year</t>
   </si>
 </sst>
 </file>
@@ -820,23 +439,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A2CD8FA-F587-48C8-B449-F9B2916EB136}">
   <dimension ref="A1:J129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="J132" sqref="J132"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="K137" sqref="K137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -853,21 +475,21 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>133</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>134</v>
+        <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>135</v>
+        <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1902</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -876,9 +498,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1903</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -887,9 +509,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1904</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -898,9 +520,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1905</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -909,9 +531,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1906</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -920,9 +542,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1907</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -931,9 +553,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>1908</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -942,9 +564,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>1909</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -953,9 +575,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>1910</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -964,9 +586,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>1911</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -975,9 +597,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>1912</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -986,9 +608,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>16</v>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>1913</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -997,9 +619,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>17</v>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>1914</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1008,9 +630,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>18</v>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>1915</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1019,9 +641,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>19</v>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>1916</v>
       </c>
       <c r="C16">
         <v>7.8655499999999998</v>
@@ -1030,9 +652,9 @@
         <v>7.8655499999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>20</v>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>1917</v>
       </c>
       <c r="C17">
         <v>11.2439</v>
@@ -1041,9 +663,9 @@
         <v>11.2439</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>21</v>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>1918</v>
       </c>
       <c r="C18">
         <v>16.131043999999999</v>
@@ -1052,9 +674,9 @@
         <v>14.771027999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>22</v>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>1919</v>
       </c>
       <c r="C19">
         <v>23.165987999999999</v>
@@ -1063,9 +685,9 @@
         <v>20.752911999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>23</v>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>1920</v>
       </c>
       <c r="C20">
         <v>30.83427</v>
@@ -1074,9 +696,9 @@
         <v>25.696245999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>24</v>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>1921</v>
       </c>
       <c r="C21">
         <v>32.869093999999997</v>
@@ -1085,9 +707,9 @@
         <v>28.702815999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>25</v>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>1922</v>
       </c>
       <c r="C22">
         <v>36.194780000000002</v>
@@ -1096,9 +718,9 @@
         <v>33.581364000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>26</v>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>1923</v>
       </c>
       <c r="C23">
         <v>26.382549999999998</v>
@@ -1107,9 +729,9 @@
         <v>25.809035999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>27</v>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>1924</v>
       </c>
       <c r="C24">
         <v>22.256402000000001</v>
@@ -1118,9 +740,9 @@
         <v>22.115110000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>28</v>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>1925</v>
       </c>
       <c r="C25">
         <v>22.123121999999999</v>
@@ -1129,9 +751,9 @@
         <v>22.272687999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>29</v>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>1926</v>
       </c>
       <c r="C26">
         <v>21.561109999999999</v>
@@ -1140,9 +762,9 @@
         <v>21.716092</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>30</v>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>1927</v>
       </c>
       <c r="C27">
         <v>22.195841999999999</v>
@@ -1151,9 +773,9 @@
         <v>22.252555999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>31</v>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>1928</v>
       </c>
       <c r="C28">
         <v>20.105878000000001</v>
@@ -1162,9 +784,9 @@
         <v>20.330349999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>32</v>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>1929</v>
       </c>
       <c r="C29">
         <v>19.634374000000001</v>
@@ -1173,9 +795,9 @@
         <v>19.682991999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>33</v>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>1930</v>
       </c>
       <c r="C30">
         <v>22.269414000000001</v>
@@ -1184,9 +806,9 @@
         <v>22.240058000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>34</v>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>1931</v>
       </c>
       <c r="C31">
         <v>27.276109999999999</v>
@@ -1195,9 +817,9 @@
         <v>27.277698000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>35</v>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>1932</v>
       </c>
       <c r="C32">
         <v>26.905062000000001</v>
@@ -1206,9 +828,9 @@
         <v>26.972572</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>36</v>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>1933</v>
       </c>
       <c r="C33">
         <v>21.745936</v>
@@ -1217,9 +839,9 @@
         <v>21.757435999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>37</v>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>1934</v>
       </c>
       <c r="C34">
         <v>18.632670000000001</v>
@@ -1228,9 +850,9 @@
         <v>18.629536000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>38</v>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>1935</v>
       </c>
       <c r="C35">
         <v>17.487912000000001</v>
@@ -1239,9 +861,9 @@
         <v>17.523237999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>39</v>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>1936</v>
       </c>
       <c r="C36">
         <v>17.593036000000001</v>
@@ -1250,9 +872,9 @@
         <v>17.551124000000002</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>40</v>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>1937</v>
       </c>
       <c r="C37">
         <v>17.112027999999999</v>
@@ -1261,9 +883,9 @@
         <v>17.112027999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>41</v>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>1938</v>
       </c>
       <c r="C38">
         <v>18.79494</v>
@@ -1272,9 +894,9 @@
         <v>18.797006</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>42</v>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>1939</v>
       </c>
       <c r="C39">
         <v>23.764880000000002</v>
@@ -1283,9 +905,9 @@
         <v>23.764880000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>43</v>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>1940</v>
       </c>
       <c r="C40">
         <v>32.860626000000003</v>
@@ -1294,9 +916,9 @@
         <v>32.860626000000003</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>44</v>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>1941</v>
       </c>
       <c r="C41">
         <v>86.610478000000001</v>
@@ -1305,9 +927,9 @@
         <v>86.610478000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>45</v>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>1942</v>
       </c>
       <c r="C42">
         <v>173.05278000000001</v>
@@ -1316,9 +938,9 @@
         <v>93.765523999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>46</v>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>1943</v>
       </c>
       <c r="C43">
         <v>302.95587599999999</v>
@@ -1327,9 +949,9 @@
         <v>186.062366</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>47</v>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>1944</v>
       </c>
       <c r="C44">
         <v>389.40350799999999</v>
@@ -1338,9 +960,9 @@
         <v>264.92941999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>48</v>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>1945</v>
       </c>
       <c r="C45">
         <v>453.24425000000002</v>
@@ -1349,9 +971,9 @@
         <v>311.364484</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>49</v>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>1946</v>
       </c>
       <c r="C46">
         <v>452.18564199999997</v>
@@ -1360,9 +982,9 @@
         <v>318.65872400000001</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>50</v>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>1947</v>
       </c>
       <c r="C47">
         <v>442.823352</v>
@@ -1371,9 +993,9 @@
         <v>308.81119799999999</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>51</v>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>1948</v>
       </c>
       <c r="C48">
         <v>498.98963800000001</v>
@@ -1382,9 +1004,9 @@
         <v>326.22194999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>52</v>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>1949</v>
       </c>
       <c r="C49">
         <v>584.29959399999996</v>
@@ -1393,9 +1015,9 @@
         <v>398.93816399999997</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>53</v>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>1950</v>
       </c>
       <c r="C50">
         <v>604.76288799999998</v>
@@ -1404,9 +1026,9 @@
         <v>391.95234199999999</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>54</v>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>1951</v>
       </c>
       <c r="C51">
         <v>741.35836800000004</v>
@@ -1415,9 +1037,9 @@
         <v>502.84430800000001</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>55</v>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>1952</v>
       </c>
       <c r="C52">
         <v>1164.6992519999999</v>
@@ -1426,9 +1048,9 @@
         <v>788.74139600000001</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>56</v>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>1953</v>
       </c>
       <c r="C53">
         <v>1194.2621079999999</v>
@@ -1437,9 +1059,9 @@
         <v>779.866356</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>57</v>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>1954</v>
       </c>
       <c r="C54">
         <v>1137.1303800000001</v>
@@ -1448,9 +1070,9 @@
         <v>788.09760200000005</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>58</v>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>1955</v>
       </c>
       <c r="C55">
         <v>1148.7420279999999</v>
@@ -1459,9 +1081,9 @@
         <v>722.84997999999996</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>59</v>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>1956</v>
       </c>
       <c r="C56">
         <v>1239.063056</v>
@@ -1470,9 +1092,9 @@
         <v>774.26057400000002</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>60</v>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>1957</v>
       </c>
       <c r="C57">
         <v>1337.9467999999999</v>
@@ -1481,9 +1103,9 @@
         <v>807.45401200000003</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>61</v>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>1958</v>
       </c>
       <c r="C58">
         <v>1397.941288</v>
@@ -1492,9 +1114,9 @@
         <v>870.14203199999997</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>62</v>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>1959</v>
       </c>
       <c r="C59">
         <v>1316.557466</v>
@@ -1503,9 +1125,9 @@
         <v>777.93022199999996</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>63</v>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>1960</v>
       </c>
       <c r="C60">
         <v>1452.912</v>
@@ -1514,9 +1136,9 @@
         <v>884.32799999999997</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>64</v>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>1961</v>
       </c>
       <c r="C61">
         <v>1736.386</v>
@@ -1525,9 +1147,9 @@
         <v>1036.8219999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>65</v>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>1962</v>
       </c>
       <c r="C62">
         <v>1777.3240000000001</v>
@@ -1536,9 +1158,9 @@
         <v>1073.7719999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>66</v>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>1963</v>
       </c>
       <c r="C63">
         <v>1746.8889999999999</v>
@@ -1547,9 +1169,9 @@
         <v>1082.6220000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>67</v>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>1964</v>
       </c>
       <c r="C64">
         <v>2009.702</v>
@@ -1558,9 +1180,9 @@
         <v>1271.0630000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>68</v>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>1965</v>
       </c>
       <c r="C65">
         <v>2444.6439999999998</v>
@@ -1569,9 +1191,9 @@
         <v>1569.4829999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>69</v>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>1966</v>
       </c>
       <c r="C66">
         <v>2709.7350000000001</v>
@@ -1580,9 +1202,9 @@
         <v>1729.44</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>70</v>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>1967</v>
       </c>
       <c r="C67">
         <v>2897.4679999999998</v>
@@ -1591,9 +1213,9 @@
         <v>1920.6030000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>71</v>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>1968</v>
       </c>
       <c r="C68">
         <v>3215.3330000000001</v>
@@ -1602,9 +1224,9 @@
         <v>2175.2489999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>72</v>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>1969</v>
       </c>
       <c r="C69">
         <v>3622.2759999999998</v>
@@ -1613,9 +1235,9 @@
         <v>2377.4059999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>73</v>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>1970</v>
       </c>
       <c r="C70">
         <v>4285.99</v>
@@ -1624,9 +1246,9 @@
         <v>2858.136</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>74</v>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>1971</v>
       </c>
       <c r="C71">
         <v>4917.2280000000001</v>
@@ -1646,9 +1268,9 @@
         <v>7.8719366903623716E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>75</v>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>1972</v>
       </c>
       <c r="C72">
         <v>5402.7879999999996</v>
@@ -1668,9 +1290,9 @@
         <v>8.4596031247194031E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>76</v>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>1973</v>
       </c>
       <c r="C73">
         <v>5728.9</v>
@@ -1690,9 +1312,9 @@
         <v>8.2066155513628516E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>77</v>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>1974</v>
       </c>
       <c r="C74">
         <v>7531</v>
@@ -1712,9 +1334,9 @@
         <v>9.0953067276311667E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>78</v>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>1975</v>
       </c>
       <c r="C75">
         <v>10176.599999999999</v>
@@ -1734,9 +1356,9 @@
         <v>0.10825755024138317</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>79</v>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>1976</v>
       </c>
       <c r="C76">
         <v>11856.900000000001</v>
@@ -1756,9 +1378,9 @@
         <v>0.1106120049430707</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>80</v>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>1977</v>
       </c>
       <c r="C77">
         <v>13995.900000000001</v>
@@ -1778,9 +1400,9 @@
         <v>0.1148973546073489</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>81</v>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>1978</v>
       </c>
       <c r="C78">
         <v>15364.699999999999</v>
@@ -1800,9 +1422,9 @@
         <v>0.11544941413872205</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>82</v>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>1979</v>
       </c>
       <c r="C79">
         <v>15970.599999999999</v>
@@ -1822,9 +1444,9 @@
         <v>0.10781874984210925</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>83</v>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>1980</v>
       </c>
       <c r="C80">
         <v>18603.399999999998</v>
@@ -1844,9 +1466,9 @@
         <v>0.11172760634109379</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>84</v>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>1981</v>
       </c>
       <c r="C81">
         <v>22415.899999999998</v>
@@ -1866,9 +1488,9 @@
         <v>0.11514308217379887</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>85</v>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>1982</v>
       </c>
       <c r="C82">
         <v>26483</v>
@@ -1888,9 +1510,9 @@
         <v>0.12069259638348687</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>86</v>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>1983</v>
       </c>
       <c r="C83">
         <v>28074</v>
@@ -1910,9 +1532,9 @@
         <v>0.12125227674682575</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>87</v>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>1984</v>
       </c>
       <c r="C84">
         <v>29651</v>
@@ -1932,9 +1554,9 @@
         <v>0.11563731316742631</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>88</v>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>1985</v>
       </c>
       <c r="C85">
         <v>35334</v>
@@ -1954,9 +1576,9 @@
         <v>0.12441402269175895</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>89</v>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>1986</v>
       </c>
       <c r="C86">
         <v>39408</v>
@@ -1976,9 +1598,9 @@
         <v>0.12548107146690382</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>90</v>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>1987</v>
       </c>
       <c r="C87">
         <v>45962</v>
@@ -1998,9 +1620,9 @@
         <v>0.13295526370007718</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>91</v>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>1988</v>
       </c>
       <c r="C88">
         <v>52235</v>
@@ -2020,9 +1642,9 @@
         <v>0.12901208323320454</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>92</v>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>1989</v>
       </c>
       <c r="C89">
         <v>59535</v>
@@ -2042,9 +1664,9 @@
         <v>0.12907535278768115</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>93</v>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>1990</v>
       </c>
       <c r="C90">
         <v>65446</v>
@@ -2064,9 +1686,9 @@
         <v>0.12359403415829841</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>94</v>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>1991</v>
       </c>
       <c r="C91">
         <v>67843</v>
@@ -2086,9 +1708,9 @@
         <v>0.12079011489603497</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>95</v>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>1992</v>
       </c>
       <c r="C92">
         <v>64244</v>
@@ -2108,9 +1730,9 @@
         <v>0.10995532518586944</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>96</v>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>1993</v>
       </c>
       <c r="C93">
         <v>65401</v>
@@ -2130,9 +1752,9 @@
         <v>0.10650113679850527</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>97</v>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>1994</v>
       </c>
       <c r="C94">
         <v>67833</v>
@@ -2152,9 +1774,9 @@
         <v>0.10838844622367762</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>98</v>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>1995</v>
       </c>
       <c r="C95">
         <v>76656</v>
@@ -2174,9 +1796,9 @@
         <v>0.11020939927033944</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>99</v>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>1996</v>
       </c>
       <c r="C96">
         <v>85471</v>
@@ -2196,9 +1818,9 @@
         <v>0.11421063576384294</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>100</v>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>1997</v>
       </c>
       <c r="C97">
         <v>93772</v>
@@ -2218,9 +1840,9 @@
         <v>0.11937678967280201</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>101</v>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>1998</v>
       </c>
       <c r="C98">
         <v>98533.799999999988</v>
@@ -2240,9 +1862,9 @@
         <v>0.12019241702461303</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>102</v>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>1999</v>
       </c>
       <c r="C99">
         <v>106305.58812090002</v>
@@ -2262,9 +1884,9 @@
         <v>0.12339578821571937</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>103</v>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>2000</v>
       </c>
       <c r="B100">
         <v>118228</v>
@@ -2298,9 +1920,9 @@
         <v>0.12381673017960514</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>104</v>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>2001</v>
       </c>
       <c r="B101">
         <v>124598.82</v>
@@ -2334,9 +1956,9 @@
         <v>0.10919644220275826</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>105</v>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>2002</v>
       </c>
       <c r="B102">
         <v>123019.48</v>
@@ -2370,9 +1992,9 @@
         <v>0.11188607809128982</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>106</v>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>2003</v>
       </c>
       <c r="B103">
         <v>134315.93</v>
@@ -2406,9 +2028,9 @@
         <v>0.11196349192514102</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>107</v>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>2004</v>
       </c>
       <c r="B104">
         <v>145608.82999999999</v>
@@ -2442,9 +2064,9 @@
         <v>0.11254370199435013</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>108</v>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>2005</v>
       </c>
       <c r="B105">
         <v>162852.36499999999</v>
@@ -2478,9 +2100,9 @@
         <v>0.11467360531809596</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>109</v>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>2006</v>
       </c>
       <c r="B106">
         <v>175588</v>
@@ -2514,9 +2136,9 @@
         <v>0.11281759366618413</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>110</v>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>2007</v>
       </c>
       <c r="B107">
         <v>188924</v>
@@ -2550,9 +2172,9 @@
         <v>0.10630701774523083</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>111</v>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>2008</v>
       </c>
       <c r="B108">
         <v>208324</v>
@@ -2586,9 +2208,9 @@
         <v>0.10503775326732975</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>112</v>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>2009</v>
       </c>
       <c r="B109">
         <v>201033</v>
@@ -2622,9 +2244,9 @@
         <v>9.6999946093524567E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>113</v>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>2010</v>
       </c>
       <c r="B110">
         <v>186753</v>
@@ -2658,9 +2280,9 @@
         <v>9.2055418788137597E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>114</v>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>2011</v>
       </c>
       <c r="B111">
         <v>204483</v>
@@ -2694,9 +2316,9 @@
         <v>9.3572355064290555E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>115</v>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>2012</v>
       </c>
       <c r="B112">
         <v>230648</v>
@@ -2730,9 +2352,9 @@
         <v>9.8867357260227967E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>116</v>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>2013</v>
       </c>
       <c r="B113">
         <v>241723</v>
@@ -2766,9 +2388,9 @@
         <v>0.10167374631652215</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>117</v>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>2014</v>
       </c>
       <c r="B114">
         <v>249283</v>
@@ -2802,9 +2424,9 @@
         <v>0.10228682403197327</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>118</v>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>2015</v>
       </c>
       <c r="B115">
         <v>257977</v>
@@ -2838,9 +2460,9 @@
         <v>0.10950844340514246</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>119</v>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>2016</v>
       </c>
       <c r="B116">
         <v>265684</v>
@@ -2874,9 +2496,9 @@
         <v>0.11285312404247259</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>120</v>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>2017</v>
       </c>
       <c r="B117">
         <v>281667</v>
@@ -2910,9 +2532,9 @@
         <v>0.11029575753162166</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>121</v>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>2018</v>
       </c>
       <c r="B118">
         <v>312978</v>
@@ -2946,9 +2568,9 @@
         <v>0.11237112170801195</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>122</v>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>2019</v>
       </c>
       <c r="B119">
         <v>339163</v>
@@ -2982,9 +2604,9 @@
         <v>0.11486184616617078</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>123</v>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>2020</v>
       </c>
       <c r="B120">
         <v>329058</v>
@@ -3018,9 +2640,9 @@
         <v>0.11198669401069</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>124</v>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>2021</v>
       </c>
       <c r="B121">
         <v>352246</v>
@@ -3054,9 +2676,9 @@
         <v>0.11168786214739321</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>125</v>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>2022</v>
       </c>
       <c r="B122">
         <v>422476</v>
@@ -3090,9 +2712,9 @@
         <v>0.111165419131805</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>126</v>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>2023</v>
       </c>
       <c r="B123">
         <v>473065</v>
@@ -3126,9 +2748,9 @@
         <v>0.11554298480396587</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>127</v>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>2024</v>
       </c>
       <c r="B124">
         <v>500598.31799999997</v>
@@ -3162,9 +2784,9 @@
         <v>0.12399158678547331</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>128</v>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>2025</v>
       </c>
       <c r="B125">
         <v>509700</v>
@@ -3198,9 +2820,9 @@
         <v>0.12013879995365204</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>129</v>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>2026</v>
       </c>
       <c r="B126">
         <v>534010</v>
@@ -3234,9 +2856,9 @@
         <v>0.1214323812275331</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>130</v>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>2027</v>
       </c>
       <c r="B127">
         <v>559690</v>
@@ -3270,9 +2892,9 @@
         <v>0.12363359813199658</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>131</v>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>2028</v>
       </c>
       <c r="B128">
         <v>583060</v>
@@ -3306,9 +2928,9 @@
         <v>0.12483843410493288</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>132</v>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>2029</v>
       </c>
       <c r="B129">
         <v>620440</v>
